--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,16 +931,16 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
@@ -922,28 +949,34 @@
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,13 +1022,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1013,31 +1052,37 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,22 +1150,24 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1123,31 +1176,37 @@
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="N17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="O17" s="3">
         <v>1500</v>
       </c>
       <c r="P17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,10 +1217,10 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
@@ -1170,31 +1229,37 @@
         <v>-600</v>
       </c>
       <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
       <c r="M18" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="N18" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-1500</v>
       </c>
       <c r="P18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1236,31 +1303,37 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1273,41 +1346,47 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
       </c>
       <c r="L21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,16 +1394,16 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1348,60 +1427,72 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
       </c>
       <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
       </c>
       <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
       </c>
       <c r="G27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-600</v>
       </c>
       <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1800,78 +1939,90 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
       </c>
       <c r="G33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
       </c>
       <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
       </c>
       <c r="G35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
       </c>
       <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2072,37 +2245,43 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2278,19 +2475,25 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,46 +2501,52 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>200</v>
-      </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,13 +2804,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,16 +2925,16 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2692,7 +2943,7 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
@@ -2701,19 +2952,25 @@
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2900</v>
       </c>
       <c r="L57" s="3">
         <v>3000</v>
       </c>
       <c r="M57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,140 +3073,158 @@
         <v>1500</v>
       </c>
       <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1200</v>
       </c>
       <c r="I58" s="3">
         <v>1200</v>
       </c>
       <c r="J58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>1100</v>
       </c>
       <c r="Q58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F66" s="3">
         <v>7100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-167500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-166500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-165900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-165400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-164900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-164400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-163700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-163200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-162500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-161800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-161200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-160600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-159000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-157500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-156100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-6200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
       </c>
       <c r="G81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
       </c>
       <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,19 +4222,21 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,46 +4551,52 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,46 +5070,52 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4682,33 +5185,39 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,13 +951,13 @@
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
@@ -955,28 +969,31 @@
         <v>200</v>
       </c>
       <c r="M12" s="3">
+        <v>200</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,17 +1045,20 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1058,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1072,8 +1092,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1170,43 +1197,46 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
@@ -1223,43 +1253,46 @@
         <v>-400</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
       <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1309,14 +1343,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1324,16 +1358,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,52 +1389,55 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q21" s="3">
         <v>-1400</v>
       </c>
       <c r="R21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1406,7 +1446,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1433,24 +1473,27 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
       </c>
       <c r="G23" s="3">
         <v>-500</v>
@@ -1459,40 +1502,43 @@
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-600</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,19 +1646,22 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
@@ -1618,51 +1670,54 @@
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-600</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
@@ -1671,40 +1726,43 @@
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-600</v>
       </c>
       <c r="N27" s="3">
         <v>-600</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1945,14 +2015,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1960,27 +2030,30 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
@@ -1989,40 +2062,43 @@
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-600</v>
       </c>
       <c r="N33" s="3">
         <v>-600</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,19 +2150,22 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
@@ -2095,98 +2174,104 @@
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-600</v>
       </c>
       <c r="N35" s="3">
         <v>-600</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2251,37 +2338,40 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,16 +2547,16 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2481,19 +2580,22 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,31 +2603,31 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -2534,19 +2636,22 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,16 +2927,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,28 +3051,28 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
@@ -2958,19 +3084,22 @@
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,81 +3141,85 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3300</v>
       </c>
       <c r="J57" s="3">
         <v>3300</v>
       </c>
       <c r="K57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1500</v>
       </c>
       <c r="G58" s="3">
         <v>1500</v>
       </c>
       <c r="H58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="3">
         <v>1400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1200</v>
       </c>
       <c r="J58" s="3">
         <v>1200</v>
@@ -3094,19 +3228,19 @@
         <v>1200</v>
       </c>
       <c r="L58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1200</v>
       </c>
       <c r="O58" s="3">
         <v>1200</v>
       </c>
       <c r="P58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Q58" s="3">
         <v>1100</v>
@@ -3115,116 +3249,125 @@
         <v>1100</v>
       </c>
       <c r="S58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2500</v>
       </c>
       <c r="P59" s="3">
         <v>2500</v>
       </c>
       <c r="Q59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-167500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-166500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-165900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-165400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-164900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-164400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-163700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-163200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-162500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-161800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-161200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-160600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-159000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-157500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-156100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-7500</v>
+        <v>-7900</v>
       </c>
       <c r="E76" s="3">
         <v>-7500</v>
       </c>
       <c r="F76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,77 +4281,83 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
@@ -4171,40 +4366,43 @@
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-600</v>
       </c>
       <c r="N81" s="3">
         <v>-600</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5191,33 +5443,36 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -954,13 +968,13 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -972,28 +986,31 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>400</v>
       </c>
       <c r="S12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T12" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,20 +1065,23 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1081,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1095,8 +1115,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1205,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1200,43 +1227,46 @@
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
@@ -1256,43 +1286,46 @@
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1346,14 +1380,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1361,16 +1395,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1392,55 +1429,58 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-600</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
       </c>
       <c r="P21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1400</v>
       </c>
       <c r="R21" s="3">
         <v>-1400</v>
       </c>
       <c r="S21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1449,7 +1489,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1476,27 +1516,30 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
@@ -1505,40 +1548,43 @@
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-600</v>
       </c>
       <c r="O23" s="3">
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,22 +1698,25 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
@@ -1673,54 +1725,57 @@
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-600</v>
       </c>
       <c r="O26" s="3">
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
@@ -1729,40 +1784,43 @@
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-600</v>
       </c>
       <c r="O27" s="3">
         <v>-600</v>
       </c>
       <c r="P27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2018,14 +2088,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2033,30 +2103,33 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
@@ -2065,40 +2138,43 @@
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-600</v>
       </c>
       <c r="O33" s="3">
         <v>-600</v>
       </c>
       <c r="P33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,22 +2229,25 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
@@ -2177,101 +2256,107 @@
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-600</v>
       </c>
       <c r="O35" s="3">
         <v>-600</v>
       </c>
       <c r="P35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2341,37 +2428,40 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,16 +2649,16 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2583,19 +2682,22 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2606,31 +2708,31 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -2639,19 +2741,22 @@
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,8 +3061,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,28 +3180,28 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
@@ -3087,19 +3213,22 @@
         <v>200</v>
       </c>
       <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,87 +3272,91 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>3300</v>
       </c>
       <c r="L57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1500</v>
       </c>
       <c r="H58" s="3">
         <v>1500</v>
       </c>
       <c r="I58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="3">
         <v>1400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1200</v>
       </c>
       <c r="K58" s="3">
         <v>1200</v>
@@ -3231,19 +3365,19 @@
         <v>1200</v>
       </c>
       <c r="M58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1200</v>
       </c>
       <c r="P58" s="3">
         <v>1200</v>
       </c>
       <c r="Q58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="R58" s="3">
         <v>1100</v>
@@ -3252,122 +3386,131 @@
         <v>1100</v>
       </c>
       <c r="T58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2500</v>
       </c>
       <c r="Q59" s="3">
         <v>2500</v>
       </c>
       <c r="R59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
         <v>7900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-169800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-168300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-167500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-166500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-165900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-165400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-164900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-164400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-163700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-163200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-162500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-161800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-161200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-160600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-159000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-157500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-156100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-7500</v>
       </c>
       <c r="F76" s="3">
         <v>-7500</v>
       </c>
       <c r="G76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,83 +4473,89 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
@@ -4369,40 +4564,43 @@
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-600</v>
       </c>
       <c r="O81" s="3">
         <v>-600</v>
       </c>
       <c r="P81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5446,33 +5698,36 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -1212,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
@@ -1529,8 +1529,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
@@ -1706,8 +1706,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
@@ -1765,8 +1765,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
@@ -2119,8 +2119,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
         <v>-800</v>
@@ -2237,8 +2237,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
         <v>-800</v>
@@ -3809,8 +3809,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>7300</v>
       </c>
       <c r="E66" s="3">
         <v>7900</v>
@@ -4545,8 +4545,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
         <v>-800</v>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,16 +998,16 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
@@ -989,28 +1016,34 @@
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
       <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,26 +1101,32 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1104,31 +1143,37 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,34 +1257,36 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1242,31 +1295,37 @@
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="R17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>1500</v>
       </c>
       <c r="T17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,25 +1333,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
@@ -1301,31 +1360,37 @@
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="R18" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="S18" s="3">
         <v>-1500</v>
       </c>
       <c r="T18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1383,31 +1450,37 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1432,41 +1505,47 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3">
         <v>-600</v>
       </c>
       <c r="N21" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
       </c>
       <c r="P21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1553,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1486,16 +1565,16 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1519,72 +1598,84 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
       <c r="K23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-600</v>
       </c>
       <c r="P27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2091,90 +2230,102 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-600</v>
       </c>
       <c r="P33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-600</v>
       </c>
       <c r="P35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2431,37 +2604,43 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2652,20 +2849,20 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
@@ -2685,19 +2882,25 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2711,52 +2914,58 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>400</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +3088,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,19 +3283,25 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3413,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3183,22 +3434,22 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3207,7 +3458,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
@@ -3216,19 +3467,25 @@
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,244 +3532,270 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2900</v>
       </c>
       <c r="P57" s="3">
         <v>3000</v>
       </c>
       <c r="Q57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1600</v>
       </c>
       <c r="H58" s="3">
         <v>1500</v>
       </c>
       <c r="I58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="3">
         <v>1400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1200</v>
       </c>
       <c r="M58" s="3">
         <v>1200</v>
       </c>
       <c r="N58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1100</v>
       </c>
       <c r="T58" s="3">
         <v>1100</v>
       </c>
       <c r="U58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F66" s="3">
         <v>7300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-170800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-169800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-168300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-167500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-166500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-165900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-165400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-164900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-164400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-163700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-163200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-162500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-161800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-161200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-160600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-159000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-157500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-156100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-7500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-7500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-6600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-6200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-5400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-6300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-5900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-600</v>
       </c>
       <c r="P81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5701,33 +6204,39 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1004,13 +1018,13 @@
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
@@ -1022,28 +1036,31 @@
         <v>200</v>
       </c>
       <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
-      </c>
-      <c r="T12" s="3">
-        <v>400</v>
       </c>
       <c r="U12" s="3">
         <v>400</v>
       </c>
       <c r="V12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="W12" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,29 +1124,32 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1149,13 +1169,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1163,8 +1183,8 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,28 +1285,29 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1289,43 +1316,46 @@
         <v>400</v>
       </c>
       <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,19 +1363,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
@@ -1354,43 +1384,46 @@
         <v>-400</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,11 +1457,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1456,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1471,16 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1511,46 +1548,49 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
       </c>
       <c r="R21" s="3">
         <v>-600</v>
       </c>
       <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-1400</v>
       </c>
       <c r="U21" s="3">
         <v>-1400</v>
       </c>
       <c r="V21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1559,17 +1599,17 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
@@ -1577,7 +1617,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1604,36 +1644,39 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
@@ -1642,40 +1685,43 @@
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-600</v>
       </c>
       <c r="R23" s="3">
         <v>-600</v>
       </c>
       <c r="S23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,31 +1853,34 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
@@ -1837,63 +1889,66 @@
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-600</v>
       </c>
       <c r="R26" s="3">
         <v>-600</v>
       </c>
       <c r="S26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
@@ -1902,40 +1957,43 @@
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-600</v>
       </c>
       <c r="R27" s="3">
         <v>-600</v>
       </c>
       <c r="S27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,10 +2273,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2236,14 +2306,14 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2251,39 +2321,42 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
@@ -2292,40 +2365,43 @@
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-600</v>
       </c>
       <c r="R33" s="3">
         <v>-600</v>
       </c>
       <c r="S33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,31 +2465,34 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
@@ -2422,110 +2501,116 @@
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-600</v>
       </c>
       <c r="R35" s="3">
         <v>-600</v>
       </c>
       <c r="S35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2610,37 +2697,40 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2855,17 +2954,17 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
@@ -2888,19 +2987,22 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2920,31 +3022,31 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
@@ -2953,19 +3055,22 @@
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3440,28 +3566,28 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
@@ -3473,19 +3599,22 @@
         <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
       <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,96 +3674,99 @@
         <v>5100</v>
       </c>
       <c r="E57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3300</v>
       </c>
       <c r="N57" s="3">
         <v>3300</v>
       </c>
       <c r="O57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1500</v>
       </c>
       <c r="K58" s="3">
         <v>1500</v>
       </c>
       <c r="L58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M58" s="3">
         <v>1400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1200</v>
       </c>
       <c r="N58" s="3">
         <v>1200</v>
@@ -3641,19 +3775,19 @@
         <v>1200</v>
       </c>
       <c r="P58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1200</v>
       </c>
       <c r="S58" s="3">
         <v>1200</v>
       </c>
       <c r="T58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="U58" s="3">
         <v>1100</v>
@@ -3662,140 +3796,149 @@
         <v>1100</v>
       </c>
       <c r="W58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>2500</v>
       </c>
       <c r="T59" s="3">
         <v>2500</v>
       </c>
       <c r="U59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>9000</v>
       </c>
       <c r="E66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F66" s="3">
         <v>8100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-172500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-171700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-170800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-169800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-168300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-167500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-166500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-165900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-165400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-164900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-164400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-163700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-163200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-162500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-161800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-161200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-160600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-159000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-157500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-156100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-7500</v>
       </c>
       <c r="I76" s="3">
         <v>-7500</v>
       </c>
       <c r="J76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,101 +5048,107 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
@@ -4962,40 +5157,43 @@
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-600</v>
       </c>
       <c r="R81" s="3">
         <v>-600</v>
       </c>
       <c r="S81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6210,33 +6462,36 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1021,13 +1035,13 @@
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
@@ -1039,28 +1053,31 @@
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
-      </c>
-      <c r="U12" s="3">
-        <v>400</v>
       </c>
       <c r="V12" s="3">
         <v>400</v>
       </c>
       <c r="W12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="X12" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1144,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1142,17 +1162,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1172,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1186,8 +1206,8 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,31 +1312,32 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1319,43 +1346,46 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,22 +1393,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
@@ -1387,43 +1417,46 @@
         <v>-400</v>
       </c>
       <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-600</v>
       </c>
       <c r="Q18" s="3">
         <v>-600</v>
       </c>
       <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1460,11 +1494,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1493,14 +1527,14 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1508,16 +1542,19 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1551,41 +1588,44 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-600</v>
       </c>
       <c r="S21" s="3">
         <v>-600</v>
       </c>
       <c r="T21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-1400</v>
       </c>
       <c r="V21" s="3">
         <v>-1400</v>
       </c>
       <c r="W21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X21" s="3">
         <v>-2300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1633,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1602,16 +1642,16 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1620,7 +1660,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1647,39 +1687,42 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
@@ -1688,40 +1731,43 @@
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-600</v>
       </c>
       <c r="S23" s="3">
         <v>-600</v>
       </c>
       <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,34 +1905,37 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
@@ -1892,66 +1944,69 @@
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-600</v>
       </c>
       <c r="S26" s="3">
         <v>-600</v>
       </c>
       <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
@@ -1960,40 +2015,43 @@
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-600</v>
       </c>
       <c r="S27" s="3">
         <v>-600</v>
       </c>
       <c r="T27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,11 +2346,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2309,14 +2379,14 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2324,42 +2394,45 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
@@ -2368,40 +2441,43 @@
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-600</v>
       </c>
       <c r="S33" s="3">
         <v>-600</v>
       </c>
       <c r="T33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,34 +2544,37 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
@@ -2504,113 +2583,119 @@
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-600</v>
       </c>
       <c r="S35" s="3">
         <v>-600</v>
       </c>
       <c r="T35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2700,37 +2787,40 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3029,16 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2957,16 +3056,16 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2990,24 +3089,27 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3025,31 +3127,31 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3058,19 +3160,22 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
       <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,13 +3668,16 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3569,28 +3695,28 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
@@ -3602,19 +3728,22 @@
         <v>200</v>
       </c>
       <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
-      </c>
-      <c r="V54" s="3">
-        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
       </c>
       <c r="X54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3677,99 +3808,102 @@
         <v>5100</v>
       </c>
       <c r="F57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3300</v>
       </c>
       <c r="O57" s="3">
         <v>3300</v>
       </c>
       <c r="P57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1500</v>
       </c>
       <c r="L58" s="3">
         <v>1500</v>
       </c>
       <c r="M58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N58" s="3">
         <v>1400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1200</v>
       </c>
       <c r="O58" s="3">
         <v>1200</v>
@@ -3778,19 +3912,19 @@
         <v>1200</v>
       </c>
       <c r="Q58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1200</v>
       </c>
       <c r="T58" s="3">
         <v>1200</v>
       </c>
       <c r="U58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="V58" s="3">
         <v>1100</v>
@@ -3799,151 +3933,160 @@
         <v>1100</v>
       </c>
       <c r="X58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2500</v>
       </c>
       <c r="U59" s="3">
         <v>2500</v>
       </c>
       <c r="V59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W59" s="3">
         <v>2100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E60" s="3">
         <v>9000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-172500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-171700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-170800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-169800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-168300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-167500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-166500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-165900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-165400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-164900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-164400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-163700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-163200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-162500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-161800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-161200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-160600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-159000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-157500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-156100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-7500</v>
       </c>
       <c r="J76" s="3">
         <v>-7500</v>
       </c>
       <c r="K76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-7100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,107 +5240,113 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
@@ -5160,40 +5355,43 @@
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-600</v>
       </c>
       <c r="S81" s="3">
         <v>-600</v>
       </c>
       <c r="T81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6465,33 +6717,36 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
-      </c>
-      <c r="U102" s="3">
-        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1038,13 +1051,13 @@
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
@@ -1056,28 +1069,31 @@
         <v>200</v>
       </c>
       <c r="S12" s="3">
+        <v>200</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
-      </c>
-      <c r="V12" s="3">
-        <v>400</v>
       </c>
       <c r="W12" s="3">
         <v>400</v>
       </c>
       <c r="X12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Y12" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,17 +1163,20 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1165,17 +1184,17 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1195,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1209,8 +1228,8 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,25 +1348,25 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1349,43 +1375,46 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,25 +1422,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
@@ -1420,43 +1449,46 @@
         <v>-400</v>
       </c>
       <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-600</v>
       </c>
       <c r="R18" s="3">
         <v>-600</v>
       </c>
       <c r="S18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1497,11 +1530,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1530,14 +1563,14 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1545,30 +1578,33 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1591,52 +1627,55 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-600</v>
       </c>
       <c r="T21" s="3">
         <v>-600</v>
       </c>
       <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-1400</v>
       </c>
       <c r="W21" s="3">
         <v>-1400</v>
       </c>
       <c r="X21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1645,16 +1684,16 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1663,7 +1702,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1690,42 +1729,45 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
@@ -1734,40 +1776,43 @@
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-600</v>
       </c>
       <c r="T23" s="3">
         <v>-600</v>
       </c>
       <c r="U23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,37 +1956,40 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
@@ -1947,69 +1998,72 @@
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-600</v>
       </c>
       <c r="T26" s="3">
         <v>-600</v>
       </c>
       <c r="U26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
@@ -2018,40 +2072,43 @@
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-600</v>
       </c>
       <c r="T27" s="3">
         <v>-600</v>
       </c>
       <c r="U27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2349,11 +2418,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2382,14 +2451,14 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2397,45 +2466,48 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
@@ -2444,40 +2516,43 @@
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-600</v>
       </c>
       <c r="T33" s="3">
         <v>-600</v>
       </c>
       <c r="U33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,37 +2622,40 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
@@ -2586,116 +2664,122 @@
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-600</v>
       </c>
       <c r="T35" s="3">
         <v>-600</v>
       </c>
       <c r="U35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2790,37 +2876,40 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3041,7 +3139,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3059,16 +3157,16 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3092,19 +3190,22 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3213,7 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3130,31 +3231,31 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3163,19 +3264,22 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
-      </c>
-      <c r="W46" s="3">
-        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
       </c>
       <c r="Y46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,7 +3805,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -3698,28 +3823,28 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
@@ -3731,19 +3856,22 @@
         <v>200</v>
       </c>
       <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
         <v>400</v>
-      </c>
-      <c r="W54" s="3">
-        <v>200</v>
       </c>
       <c r="X54" s="3">
         <v>200</v>
       </c>
       <c r="Y54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,13 +3925,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E57" s="3">
         <v>5100</v>
@@ -3811,102 +3941,105 @@
         <v>5100</v>
       </c>
       <c r="G57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3300</v>
       </c>
       <c r="P57" s="3">
         <v>3300</v>
       </c>
       <c r="Q57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O58" s="3">
         <v>1400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1200</v>
       </c>
       <c r="P58" s="3">
         <v>1200</v>
@@ -3915,19 +4048,19 @@
         <v>1200</v>
       </c>
       <c r="R58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1200</v>
       </c>
       <c r="U58" s="3">
         <v>1200</v>
       </c>
       <c r="V58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="W58" s="3">
         <v>1100</v>
@@ -3936,152 +4069,161 @@
         <v>1100</v>
       </c>
       <c r="Y58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>2500</v>
       </c>
       <c r="V59" s="3">
         <v>2500</v>
       </c>
       <c r="W59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X59" s="3">
         <v>2100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
         <v>9300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,7 +4231,7 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-172500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-171700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-170800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-169800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-168300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-167500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-166500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-165900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-165400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-164900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-164400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-163700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-163200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-162500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-161800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-161200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-160600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-159000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-157500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-156100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-7500</v>
       </c>
       <c r="K76" s="3">
         <v>-7500</v>
       </c>
       <c r="L76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-7100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,113 +5431,119 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
@@ -5358,40 +5552,43 @@
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-600</v>
       </c>
       <c r="T81" s="3">
         <v>-600</v>
       </c>
       <c r="U81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6720,33 +6971,36 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
-      </c>
-      <c r="V102" s="3">
-        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,119 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +850,14 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,16 +1044,18 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -1054,16 +1082,16 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
@@ -1072,28 +1100,34 @@
         <v>200</v>
       </c>
       <c r="T12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
       </c>
       <c r="V12" s="3">
+        <v>400</v>
+      </c>
+      <c r="W12" s="3">
+        <v>200</v>
+      </c>
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,41 +1200,47 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1217,31 +1257,37 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,49 +1391,51 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
@@ -1390,31 +1444,37 @@
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
         <v>600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>700</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
       <c r="V17" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="W17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>1500</v>
       </c>
       <c r="Y17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA17" s="3">
         <v>2200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,40 +1482,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="P18" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
@@ -1464,31 +1524,37 @@
         <v>-600</v>
       </c>
       <c r="S18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-700</v>
       </c>
       <c r="U18" s="3">
         <v>-600</v>
       </c>
       <c r="V18" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="W18" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="X18" s="3">
         <v>-1500</v>
       </c>
       <c r="Y18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1533,14 +1601,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1566,31 +1634,37 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,19 +1672,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1630,64 +1704,70 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-500</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R21" s="3">
         <v>-600</v>
       </c>
       <c r="S21" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="T21" s="3">
         <v>-600</v>
       </c>
       <c r="U21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1699,16 +1779,16 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1732,87 +1812,99 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-800</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
         <v>-800</v>
       </c>
       <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
       <c r="P23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="S23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="T23" s="3">
         <v>-600</v>
       </c>
       <c r="U23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-800</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
         <v>-800</v>
       </c>
       <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="S26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="T26" s="3">
         <v>-600</v>
       </c>
       <c r="U26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-800</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
         <v>-800</v>
       </c>
       <c r="G27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
       <c r="P27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="S27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-600</v>
       </c>
       <c r="U27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2421,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2454,105 +2594,117 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-800</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-800</v>
       </c>
       <c r="G33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
       <c r="P33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="S33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-600</v>
       </c>
       <c r="U33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-800</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-800</v>
       </c>
       <c r="G35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
       <c r="P35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="S35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-600</v>
       </c>
       <c r="U35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +3006,10 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2879,37 +3053,43 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3162,14 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,23 +3322,29 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -3160,20 +3358,20 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
@@ -3193,34 +3391,40 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>100</v>
-      </c>
       <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
@@ -3234,52 +3438,58 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
       </c>
       <c r="Y46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3562,14 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,8 +3642,14 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,23 +4042,29 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
@@ -3826,22 +4078,22 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -3850,7 +4102,7 @@
         <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
@@ -3859,19 +4111,25 @@
         <v>200</v>
       </c>
       <c r="W54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="X54" s="3">
         <v>200</v>
       </c>
       <c r="Y54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,96 +4186,104 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F57" s="3">
         <v>5200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5100</v>
       </c>
       <c r="G57" s="3">
         <v>5100</v>
       </c>
       <c r="H57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="T57" s="3">
-        <v>2900</v>
       </c>
       <c r="U57" s="3">
         <v>3000</v>
       </c>
       <c r="V57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1600</v>
       </c>
       <c r="H58" s="3">
         <v>1700</v>
@@ -4024,220 +4292,238 @@
         <v>1600</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L58" s="3">
         <v>1400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1600</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1200</v>
       </c>
       <c r="R58" s="3">
         <v>1200</v>
       </c>
       <c r="S58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U58" s="3">
         <v>1300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1100</v>
       </c>
       <c r="Y58" s="3">
         <v>1100</v>
       </c>
       <c r="Z58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F60" s="3">
         <v>9900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>6900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4296,8 +4582,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>5000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-174800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-174000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-173200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-172500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-171700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-170800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-169800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-168300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-167500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-166500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-165900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-165400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-164900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-164400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-163700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-163200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-162500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-161800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-161200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-160600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-159000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-157500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-156100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-8500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-8100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-7300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-7900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-7500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-7100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-6600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-6200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-5100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-6300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-5900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-800</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-800</v>
       </c>
       <c r="G81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
       <c r="P81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="S81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-600</v>
       </c>
       <c r="U81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6601,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6837,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6917,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7427,14 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6974,33 +7478,39 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -1828,8 +1828,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-900</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-900</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>-900</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>-900</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>-900</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>-900</v>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,7 +1072,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -1088,13 +1102,13 @@
         <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
@@ -1106,28 +1120,31 @@
         <v>200</v>
       </c>
       <c r="V12" s="3">
+        <v>200</v>
+      </c>
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>400</v>
       </c>
       <c r="Z12" s="3">
         <v>400</v>
       </c>
       <c r="AA12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="AB12" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,26 +1223,29 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1233,17 +1253,17 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1263,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1277,8 +1297,8 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,43 +1419,44 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
@@ -1438,43 +1465,46 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,34 +1512,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
@@ -1518,43 +1548,46 @@
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-600</v>
       </c>
       <c r="U18" s="3">
         <v>-600</v>
       </c>
       <c r="V18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1607,11 +1641,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1640,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1655,16 +1689,19 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,22 +1709,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-500</v>
       </c>
       <c r="G21" s="3">
         <v>-500</v>
       </c>
       <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1710,61 +1747,64 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-600</v>
       </c>
       <c r="W21" s="3">
         <v>-600</v>
       </c>
       <c r="X21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-1400</v>
       </c>
       <c r="Z21" s="3">
         <v>-1400</v>
       </c>
       <c r="AA21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1773,17 +1813,17 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
@@ -1791,7 +1831,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1818,13 +1858,16 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,37 +1875,37 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
@@ -1871,40 +1914,43 @@
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-600</v>
       </c>
       <c r="W23" s="3">
         <v>-600</v>
       </c>
       <c r="X23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2112,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2072,37 +2124,37 @@
         <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
@@ -2111,78 +2163,81 @@
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-600</v>
       </c>
       <c r="W26" s="3">
         <v>-600</v>
       </c>
       <c r="X26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
@@ -2191,40 +2246,43 @@
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-600</v>
       </c>
       <c r="W27" s="3">
         <v>-600</v>
       </c>
       <c r="X27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2567,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2600,14 +2670,14 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2615,54 +2685,57 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
@@ -2671,40 +2744,43 @@
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-600</v>
       </c>
       <c r="W33" s="3">
         <v>-600</v>
       </c>
       <c r="X33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,46 +2859,49 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
@@ -2831,125 +2910,131 @@
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-600</v>
       </c>
       <c r="W35" s="3">
         <v>-600</v>
       </c>
       <c r="X35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3059,37 +3146,40 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3340,13 +3439,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3364,17 +3463,17 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
@@ -3397,19 +3496,22 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
-        <v>100</v>
-      </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
       <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3420,13 +3522,13 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3444,31 +3546,31 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
@@ -3477,19 +3579,22 @@
         <v>200</v>
       </c>
       <c r="Y46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z46" s="3">
         <v>400</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>200</v>
       </c>
       <c r="AA46" s="3">
         <v>200</v>
       </c>
       <c r="AB46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4171,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4060,13 +4186,13 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -4084,28 +4210,28 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
@@ -4117,19 +4243,22 @@
         <v>200</v>
       </c>
       <c r="Y54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z54" s="3">
         <v>400</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>200</v>
       </c>
       <c r="AA54" s="3">
         <v>200</v>
       </c>
       <c r="AB54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,22 +4318,23 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5100</v>
       </c>
       <c r="H57" s="3">
         <v>5100</v>
@@ -4212,111 +4343,114 @@
         <v>5100</v>
       </c>
       <c r="J57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3300</v>
       </c>
       <c r="S57" s="3">
         <v>3300</v>
       </c>
       <c r="T57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U57" s="3">
         <v>3100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="3">
         <v>2400</v>
       </c>
       <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1500</v>
       </c>
       <c r="P58" s="3">
         <v>1500</v>
       </c>
       <c r="Q58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R58" s="3">
         <v>1400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1200</v>
       </c>
       <c r="S58" s="3">
         <v>1200</v>
@@ -4325,19 +4459,19 @@
         <v>1200</v>
       </c>
       <c r="U58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1200</v>
       </c>
       <c r="X58" s="3">
         <v>1200</v>
       </c>
       <c r="Y58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Z58" s="3">
         <v>1100</v>
@@ -4346,170 +4480,179 @@
         <v>1100</v>
       </c>
       <c r="AB58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
-      </c>
-      <c r="X59" s="3">
-        <v>2500</v>
       </c>
       <c r="Y59" s="3">
         <v>2500</v>
       </c>
       <c r="Z59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA59" s="3">
         <v>2100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E60" s="3">
         <v>11000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,7 +4660,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
@@ -4526,7 +4669,7 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-175800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-175300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-174800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-174000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-173200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-172500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-171700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-170800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-169800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-168300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-167500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-166500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-165900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-165400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-164900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-164400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-163700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-163200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-162500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-161800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-161200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-160600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-159000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-157500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-156100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-7500</v>
       </c>
       <c r="N76" s="3">
         <v>-7500</v>
       </c>
       <c r="O76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="P76" s="3">
         <v>-7100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,131 +6007,137 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
@@ -5951,40 +6146,43 @@
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-600</v>
       </c>
       <c r="W81" s="3">
         <v>-600</v>
       </c>
       <c r="X81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,79 +6719,82 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,79 +7528,82 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7484,33 +7736,36 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,13 +1072,14 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1075,7 +1088,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
@@ -1105,13 +1118,13 @@
         <v>200</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
@@ -1123,28 +1136,31 @@
         <v>200</v>
       </c>
       <c r="W12" s="3">
+        <v>200</v>
+      </c>
+      <c r="X12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>600</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>400</v>
       </c>
       <c r="AA12" s="3">
         <v>400</v>
       </c>
       <c r="AB12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="AC12" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,29 +1242,32 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1256,17 +1275,17 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1286,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1300,8 +1319,8 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
@@ -1309,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,46 +1445,47 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1468,43 +1494,46 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,37 +1541,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
@@ -1551,43 +1580,46 @@
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-600</v>
       </c>
       <c r="V18" s="3">
         <v>-600</v>
       </c>
       <c r="W18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1662,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1644,11 +1677,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1677,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>100</v>
-      </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1692,16 +1725,19 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,25 +1745,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-500</v>
       </c>
       <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1750,41 +1786,44 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-600</v>
       </c>
       <c r="X21" s="3">
         <v>-600</v>
       </c>
       <c r="Y21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-1400</v>
       </c>
       <c r="AA21" s="3">
         <v>-1400</v>
       </c>
       <c r="AB21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1792,22 +1831,22 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1816,17 +1855,17 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
@@ -1834,7 +1873,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1861,54 +1900,57 @@
         <v>0</v>
       </c>
       <c r="AB22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
       </c>
       <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
@@ -1917,40 +1959,43 @@
         <v>-500</v>
       </c>
       <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-600</v>
       </c>
       <c r="X23" s="3">
         <v>-600</v>
       </c>
       <c r="Y23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,49 +2163,52 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
       </c>
       <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
@@ -2166,81 +2217,84 @@
         <v>-500</v>
       </c>
       <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-600</v>
       </c>
       <c r="X26" s="3">
         <v>-600</v>
       </c>
       <c r="Y26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
@@ -2249,40 +2303,43 @@
         <v>-500</v>
       </c>
       <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-600</v>
       </c>
       <c r="X27" s="3">
         <v>-600</v>
       </c>
       <c r="Y27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2625,7 +2694,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2640,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2673,14 +2742,14 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2688,57 +2757,60 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
@@ -2747,40 +2819,43 @@
         <v>-500</v>
       </c>
       <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-600</v>
       </c>
       <c r="X33" s="3">
         <v>-600</v>
       </c>
       <c r="Y33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,49 +2937,52 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
@@ -2913,128 +2991,134 @@
         <v>-500</v>
       </c>
       <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-600</v>
       </c>
       <c r="X35" s="3">
         <v>-600</v>
       </c>
       <c r="Y35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3149,37 +3235,40 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,13 +3522,16 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3442,13 +3540,13 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3466,17 +3564,17 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
@@ -3499,24 +3597,27 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
-        <v>100</v>
-      </c>
       <c r="AB45" s="3">
         <v>100</v>
       </c>
       <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3525,13 +3626,13 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3549,31 +3650,31 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
@@ -3582,19 +3683,22 @@
         <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>400</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>200</v>
       </c>
       <c r="AB46" s="3">
         <v>200</v>
       </c>
       <c r="AC46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3759,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,13 +4296,16 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -4189,13 +4314,13 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -4213,28 +4338,28 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
@@ -4246,19 +4371,22 @@
         <v>200</v>
       </c>
       <c r="Z54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>400</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>200</v>
       </c>
       <c r="AB54" s="3">
         <v>200</v>
       </c>
       <c r="AC54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,25 +4448,26 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5100</v>
       </c>
       <c r="I57" s="3">
         <v>5100</v>
@@ -4346,114 +4476,117 @@
         <v>5100</v>
       </c>
       <c r="K57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3300</v>
       </c>
       <c r="T57" s="3">
         <v>3300</v>
       </c>
       <c r="U57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V57" s="3">
         <v>3100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2400</v>
       </c>
       <c r="F58" s="3">
         <v>2400</v>
       </c>
       <c r="G58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1500</v>
       </c>
       <c r="Q58" s="3">
         <v>1500</v>
       </c>
       <c r="R58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S58" s="3">
         <v>1400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1200</v>
       </c>
       <c r="T58" s="3">
         <v>1200</v>
@@ -4462,19 +4595,19 @@
         <v>1200</v>
       </c>
       <c r="V58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1200</v>
       </c>
       <c r="Y58" s="3">
         <v>1200</v>
       </c>
       <c r="Z58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="AA58" s="3">
         <v>1100</v>
@@ -4483,176 +4616,185 @@
         <v>1100</v>
       </c>
       <c r="AC58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>2500</v>
       </c>
       <c r="Z59" s="3">
         <v>2500</v>
       </c>
       <c r="AA59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB59" s="3">
         <v>2100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E60" s="3">
         <v>11400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4663,7 +4805,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -4672,7 +4814,7 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-175800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-175300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-174800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-174000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-173200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-172500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-171700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-170800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-169800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-168300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-167500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-166500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-165900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-165400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-164900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-164400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-163700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-163200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-162500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-161800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-161200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-160600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-159000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-157500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-156100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-7500</v>
       </c>
       <c r="O76" s="3">
         <v>-7500</v>
       </c>
       <c r="P76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-4900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,137 +6198,143 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
@@ -6149,40 +6343,43 @@
         <v>-500</v>
       </c>
       <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-600</v>
       </c>
       <c r="X81" s="3">
         <v>-600</v>
       </c>
       <c r="Y81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7739,33 +7990,36 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
         <v>100</v>
       </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,134 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +877,14 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +969,14 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1061,14 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,28 +1099,30 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
@@ -1121,16 +1149,16 @@
         <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
@@ -1139,28 +1167,34 @@
         <v>200</v>
       </c>
       <c r="X12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Y12" s="3">
         <v>200</v>
       </c>
       <c r="Z12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB12" s="3">
         <v>600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AF12" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,53 +1279,59 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
-      </c>
-      <c r="N14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1308,31 +1348,37 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,61 +1498,63 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
@@ -1509,31 +1563,37 @@
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>500</v>
+      </c>
+      <c r="X17" s="3">
         <v>600</v>
-      </c>
-      <c r="X17" s="3">
-        <v>700</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
       </c>
       <c r="Z17" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="AA17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="AB17" s="3">
         <v>1500</v>
       </c>
       <c r="AC17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE17" s="3">
         <v>2200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,52 +1601,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
       </c>
       <c r="S18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="T18" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
@@ -1595,31 +1655,37 @@
         <v>-600</v>
       </c>
       <c r="W18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X18" s="3">
         <v>-600</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-700</v>
       </c>
       <c r="Y18" s="3">
         <v>-600</v>
       </c>
       <c r="Z18" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="AA18" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="AB18" s="3">
         <v>-1500</v>
       </c>
       <c r="AC18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1716,10 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,16 +1727,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1680,14 +1748,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1713,31 +1781,37 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
       <c r="AD20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1747,29 +1821,29 @@
       <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1789,76 +1863,82 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-500</v>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V21" s="3">
         <v>-600</v>
       </c>
       <c r="W21" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="X21" s="3">
         <v>-600</v>
       </c>
       <c r="Y21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1870,16 +1950,16 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1903,99 +1983,111 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
       </c>
       <c r="J23" s="3">
         <v>-800</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="U23" s="3">
         <v>-500</v>
       </c>
       <c r="V23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="W23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="X23" s="3">
         <v>-600</v>
       </c>
       <c r="Y23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2172,14 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2264,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
       </c>
       <c r="J26" s="3">
         <v>-800</v>
       </c>
       <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="U26" s="3">
         <v>-500</v>
       </c>
       <c r="V26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="W26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="X26" s="3">
         <v>-600</v>
       </c>
       <c r="Y26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-900</v>
       </c>
       <c r="H27" s="3">
         <v>-800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="J27" s="3">
         <v>-800</v>
       </c>
       <c r="K27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
       <c r="T27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
       </c>
       <c r="V27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="W27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="X27" s="3">
         <v>-600</v>
       </c>
       <c r="Y27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2816,14 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,17 +2831,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2712,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2745,117 +2885,129 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-900</v>
       </c>
       <c r="H33" s="3">
         <v>-800</v>
       </c>
       <c r="I33" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="J33" s="3">
         <v>-800</v>
       </c>
       <c r="K33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
       </c>
       <c r="T33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
       </c>
       <c r="V33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="W33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="X33" s="3">
         <v>-600</v>
       </c>
       <c r="Y33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3092,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-900</v>
       </c>
       <c r="H35" s="3">
         <v>-800</v>
       </c>
       <c r="I35" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="J35" s="3">
         <v>-800</v>
       </c>
       <c r="K35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
       </c>
       <c r="T35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
       </c>
       <c r="V35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="W35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="X35" s="3">
         <v>-600</v>
       </c>
       <c r="Y35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3353,10 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3238,37 +3412,43 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
       <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3533,14 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3625,14 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,35 +3717,41 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
@@ -3567,20 +3765,20 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
@@ -3600,46 +3798,52 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>100</v>
-      </c>
       <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
@@ -3653,52 +3857,58 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
       <c r="X46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
       </c>
       <c r="AA46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AB46" s="3">
         <v>200</v>
       </c>
       <c r="AC46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3993,14 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +4085,14 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4177,14 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4361,14 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,35 +4545,41 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
@@ -4341,22 +4593,22 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
@@ -4365,7 +4617,7 @@
         <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
         <v>200</v>
@@ -4374,19 +4626,25 @@
         <v>200</v>
       </c>
       <c r="AA54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AB54" s="3">
         <v>200</v>
       </c>
       <c r="AC54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,120 +4709,128 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5100</v>
       </c>
       <c r="K57" s="3">
         <v>5100</v>
       </c>
       <c r="L57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="X57" s="3">
-        <v>2900</v>
       </c>
       <c r="Y57" s="3">
         <v>3000</v>
       </c>
       <c r="Z57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB57" s="3">
         <v>2800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>2700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>2500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>2300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1600</v>
       </c>
       <c r="L58" s="3">
         <v>1700</v>
@@ -4571,256 +4839,274 @@
         <v>1600</v>
       </c>
       <c r="N58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P58" s="3">
         <v>1400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1600</v>
       </c>
       <c r="Q58" s="3">
         <v>1500</v>
       </c>
       <c r="R58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U58" s="3">
         <v>1400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1200</v>
       </c>
       <c r="V58" s="3">
         <v>1200</v>
       </c>
       <c r="W58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1200</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>1100</v>
       </c>
       <c r="AC58" s="3">
         <v>1100</v>
       </c>
       <c r="AD58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>2100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>6900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>6500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>6300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>5700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>5000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4879,8 +5165,14 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5257,14 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F66" s="3">
         <v>11900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>5700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>5000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,13 +5843,19 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +6027,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-177200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-176500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-176100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-175800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-175300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-174800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-174000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-173200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-172500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-171700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-170800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-169800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-168300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-167500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-165900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-165400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-164900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-164400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-163700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-163200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-162500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-161800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-161200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-160600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-159000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-157500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-156100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6395,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-11600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-11200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-10900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-8500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-8100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-7300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-7500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-7100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-6600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-6200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-5800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-5400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-5100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-5000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-4900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6579,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-900</v>
       </c>
       <c r="H81" s="3">
         <v>-800</v>
       </c>
       <c r="I81" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="J81" s="3">
         <v>-800</v>
       </c>
       <c r="K81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
       </c>
       <c r="T81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
       </c>
       <c r="V81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="W81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="X81" s="3">
         <v>-600</v>
       </c>
       <c r="Y81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6806,10 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6894,14 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7354,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7484,10 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7572,14 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7756,14 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7848,14 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7886,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8250,106 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8434,14 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7993,33 +8497,39 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>100</v>
-      </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>RSPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -883,8 +887,11 @@
       <c r="AF8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -975,8 +982,11 @@
       <c r="AF9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1077,11 @@
       <c r="AF10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,8 +1114,9 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1113,10 +1127,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1125,7 +1139,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -1155,13 +1169,13 @@
         <v>200</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
@@ -1173,28 +1187,31 @@
         <v>200</v>
       </c>
       <c r="Z12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>600</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>400</v>
       </c>
       <c r="AD12" s="3">
         <v>400</v>
       </c>
       <c r="AE12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="AF12" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,38 +1302,41 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1324,17 +1344,17 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1354,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1368,8 +1388,8 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE14" s="3">
         <v>0</v>
@@ -1377,8 +1397,11 @@
       <c r="AF14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,55 +1526,56 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
@@ -1557,43 +1584,46 @@
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>600</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
       </c>
       <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2200</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1601,46 +1631,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-400</v>
@@ -1649,43 +1679,46 @@
         <v>-400</v>
       </c>
       <c r="U18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-600</v>
       </c>
       <c r="Y18" s="3">
         <v>-600</v>
       </c>
       <c r="Z18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-2200</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,8 +1751,9 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1730,16 +1764,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1754,11 +1788,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1787,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>100</v>
-      </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
@@ -1802,16 +1836,19 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1819,34 +1856,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-500</v>
       </c>
       <c r="K21" s="3">
         <v>-500</v>
       </c>
       <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1869,50 +1906,53 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-600</v>
       </c>
       <c r="AA21" s="3">
         <v>-600</v>
       </c>
       <c r="AB21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-1400</v>
       </c>
       <c r="AD21" s="3">
         <v>-1400</v>
       </c>
       <c r="AE21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AF21" s="3">
         <v>-2300</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
@@ -1920,22 +1960,22 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1944,17 +1984,17 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
@@ -1962,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1989,63 +2029,66 @@
         <v>0</v>
       </c>
       <c r="AE22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-500</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
@@ -2054,40 +2097,43 @@
         <v>-500</v>
       </c>
       <c r="V23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-600</v>
       </c>
       <c r="AA23" s="3">
         <v>-600</v>
       </c>
       <c r="AB23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2178,8 +2224,11 @@
       <c r="AF24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,58 +2319,61 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-500</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
@@ -2330,90 +2382,93 @@
         <v>-500</v>
       </c>
       <c r="V26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-600</v>
       </c>
       <c r="AA26" s="3">
         <v>-600</v>
       </c>
       <c r="AB26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
@@ -2422,40 +2477,43 @@
         <v>-500</v>
       </c>
       <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-600</v>
       </c>
       <c r="AA27" s="3">
         <v>-600</v>
       </c>
       <c r="AB27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,8 +2889,11 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2834,16 +2904,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2858,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2891,14 +2961,14 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2906,66 +2976,69 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-100</v>
       </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
       <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
@@ -2974,40 +3047,43 @@
         <v>-500</v>
       </c>
       <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-600</v>
       </c>
       <c r="AA33" s="3">
         <v>-600</v>
       </c>
       <c r="AB33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,58 +3174,61 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
@@ -3158,137 +3237,143 @@
         <v>-500</v>
       </c>
       <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-600</v>
       </c>
       <c r="AA35" s="3">
         <v>-600</v>
       </c>
       <c r="AB35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,8 +3441,9 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3418,37 +3505,40 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
         <v>200</v>
       </c>
-      <c r="AD41" s="3">
-        <v>100</v>
-      </c>
       <c r="AE41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3539,8 +3629,11 @@
       <c r="AF42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3631,8 +3724,11 @@
       <c r="AF43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3723,8 +3819,11 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3735,10 +3834,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3747,13 +3846,13 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3771,17 +3870,17 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
@@ -3804,19 +3903,22 @@
         <v>100</v>
       </c>
       <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
-      <c r="AD45" s="3">
-        <v>100</v>
-      </c>
       <c r="AE45" s="3">
         <v>100</v>
       </c>
       <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3827,10 +3929,10 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3839,13 +3941,13 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -3863,31 +3965,31 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
       <c r="Y46" s="3">
         <v>100</v>
       </c>
       <c r="Z46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA46" s="3">
         <v>200</v>
@@ -3896,19 +3998,22 @@
         <v>200</v>
       </c>
       <c r="AC46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD46" s="3">
         <v>400</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>200</v>
       </c>
       <c r="AE46" s="3">
         <v>200</v>
       </c>
       <c r="AF46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AG46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3999,8 +4104,11 @@
       <c r="AF47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4091,8 +4199,11 @@
       <c r="AF48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4183,8 +4294,11 @@
       <c r="AF49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,8 +4484,11 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4459,8 +4579,11 @@
       <c r="AF52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,8 +4674,11 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4563,10 +4689,10 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -4575,13 +4701,13 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -4599,28 +4725,28 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
       <c r="Y54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z54" s="3">
         <v>200</v>
@@ -4632,19 +4758,22 @@
         <v>200</v>
       </c>
       <c r="AC54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD54" s="3">
         <v>400</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>200</v>
       </c>
       <c r="AE54" s="3">
         <v>200</v>
       </c>
       <c r="AF54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AG54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,34 +4841,35 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>5100</v>
       </c>
       <c r="L57" s="3">
         <v>5100</v>
@@ -4747,123 +4878,126 @@
         <v>5100</v>
       </c>
       <c r="N57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>3300</v>
       </c>
       <c r="W57" s="3">
         <v>3300</v>
       </c>
       <c r="X57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y57" s="3">
         <v>3100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2300</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AG57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
         <v>2900</v>
       </c>
       <c r="F58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2400</v>
       </c>
       <c r="I58" s="3">
         <v>2400</v>
       </c>
       <c r="J58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1500</v>
       </c>
       <c r="T58" s="3">
         <v>1500</v>
       </c>
       <c r="U58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V58" s="3">
         <v>1400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1200</v>
       </c>
       <c r="W58" s="3">
         <v>1200</v>
@@ -4872,19 +5006,19 @@
         <v>1200</v>
       </c>
       <c r="Y58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>1200</v>
       </c>
       <c r="AB58" s="3">
         <v>1200</v>
       </c>
       <c r="AC58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="AD58" s="3">
         <v>1100</v>
@@ -4893,205 +5027,214 @@
         <v>1100</v>
       </c>
       <c r="AF58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AG58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2800</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>2500</v>
       </c>
       <c r="AC59" s="3">
         <v>2500</v>
       </c>
       <c r="AD59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AE59" s="3">
         <v>2100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1700</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AG59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E60" s="3">
         <v>12200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5000</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -5100,7 +5243,7 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
@@ -5109,7 +5252,7 @@
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -5171,8 +5314,11 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5263,8 +5409,11 @@
       <c r="AF62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,100 +5694,106 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E66" s="3">
         <v>12300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5000</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,17 +6014,20 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>700</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,100 +6204,106 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-177600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-177200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-176500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-176100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-175800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-175300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-174800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-174000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-173200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-172500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-171700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-170800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-169800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-168300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-167500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-166500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-165900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-165400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-164900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-164400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-163700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-163200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-162500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-161800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-161200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-160600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-159000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-157500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-156100</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>-153700</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,100 +6584,106 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-7500</v>
       </c>
       <c r="R76" s="3">
         <v>-7500</v>
       </c>
       <c r="S76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T76" s="3">
         <v>-7100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-6800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-5900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-5500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-4900</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,155 +6774,161 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
@@ -6742,40 +6937,43 @@
         <v>-500</v>
       </c>
       <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-600</v>
       </c>
       <c r="AA81" s="3">
         <v>-600</v>
       </c>
       <c r="AB81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AG81" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,8 +7006,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6900,8 +7099,11 @@
       <c r="AF83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,100 +7574,106 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
         <v>-200</v>
       </c>
       <c r="AD89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-300</v>
       </c>
-      <c r="AF89" s="3">
+      <c r="AG89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,8 +7706,9 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7578,8 +7799,11 @@
       <c r="AF91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,8 +7989,11 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7854,8 +8084,11 @@
       <c r="AF94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,8 +8121,9 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,8 +8499,11 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8265,91 +8511,94 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
-      <c r="AE100" s="3">
-        <v>0</v>
-      </c>
       <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8440,8 +8689,11 @@
       <c r="AF101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8503,33 +8755,36 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
-        <v>100</v>
-      </c>
       <c r="AD102" s="3">
         <v>100</v>
       </c>
       <c r="AE102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF102" s="3">
         <v>-300</v>
       </c>
-      <c r="AF102" s="3">
+      <c r="AG102" s="3">
         <v>300</v>
       </c>
     </row>
